--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>2004.464621417556</v>
+        <v>2458.391587101984</v>
       </c>
       <c r="R2">
-        <v>2004.464621417556</v>
+        <v>22125.52428391785</v>
       </c>
       <c r="S2">
-        <v>0.01403601614645357</v>
+        <v>0.01644213301993311</v>
       </c>
       <c r="T2">
-        <v>0.01403601614645357</v>
+        <v>0.01644213301993311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>2016.979304338603</v>
+        <v>2322.946488020199</v>
       </c>
       <c r="R3">
-        <v>2016.979304338603</v>
+        <v>20906.51839218179</v>
       </c>
       <c r="S3">
-        <v>0.01412364866920838</v>
+        <v>0.01553625360361685</v>
       </c>
       <c r="T3">
-        <v>0.01412364866920838</v>
+        <v>0.01553625360361686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>2353.01004984235</v>
+        <v>2724.483823697066</v>
       </c>
       <c r="R4">
-        <v>2353.01004984235</v>
+        <v>24520.3544132736</v>
       </c>
       <c r="S4">
-        <v>0.01647666249604254</v>
+        <v>0.01822180228524546</v>
       </c>
       <c r="T4">
-        <v>0.01647666249604254</v>
+        <v>0.01822180228524546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>40091.50375330351</v>
+        <v>43323.55953518271</v>
       </c>
       <c r="R5">
-        <v>40091.50375330351</v>
+        <v>389912.0358166444</v>
       </c>
       <c r="S5">
-        <v>0.2807358074591575</v>
+        <v>0.2897551929935543</v>
       </c>
       <c r="T5">
-        <v>0.2807358074591575</v>
+        <v>0.2897551929935543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>40341.81121792005</v>
+        <v>40936.64776546918</v>
       </c>
       <c r="R6">
-        <v>40341.81121792005</v>
+        <v>368429.8298892226</v>
       </c>
       <c r="S6">
-        <v>0.2824885545904344</v>
+        <v>0.2737911289158953</v>
       </c>
       <c r="T6">
-        <v>0.2824885545904344</v>
+        <v>0.2737911289158954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>47062.79683704335</v>
+        <v>48012.82991605256</v>
       </c>
       <c r="R7">
-        <v>47062.79683704335</v>
+        <v>432115.4692444731</v>
       </c>
       <c r="S7">
-        <v>0.3295514269714808</v>
+        <v>0.3211178155200916</v>
       </c>
       <c r="T7">
-        <v>0.3295514269714808</v>
+        <v>0.3211178155200917</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>2810.607549861043</v>
+        <v>3189.808557114768</v>
       </c>
       <c r="R8">
-        <v>2810.607549861043</v>
+        <v>28708.27701403291</v>
       </c>
       <c r="S8">
-        <v>0.01968093251917566</v>
+        <v>0.02133397172336898</v>
       </c>
       <c r="T8">
-        <v>0.01968093251917566</v>
+        <v>0.02133397172336898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>2828.155308961495</v>
+        <v>3014.066035729214</v>
       </c>
       <c r="R9">
-        <v>2828.155308961495</v>
+        <v>27126.59432156292</v>
       </c>
       <c r="S9">
-        <v>0.01980380853675977</v>
+        <v>0.02015857642465416</v>
       </c>
       <c r="T9">
-        <v>0.01980380853675977</v>
+        <v>0.02015857642465417</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>3299.32877852882</v>
+        <v>3535.068156002905</v>
       </c>
       <c r="R10">
-        <v>3299.32877852882</v>
+        <v>31815.61340402614</v>
       </c>
       <c r="S10">
-        <v>0.02310314261128713</v>
+        <v>0.02364312551364023</v>
       </c>
       <c r="T10">
-        <v>0.02310314261128713</v>
+        <v>0.02364312551364023</v>
       </c>
     </row>
   </sheetData>
